--- a/media/clients/lida1/vgcbh/mp_vgcbh_09.17.21.xlsx
+++ b/media/clients/lida1/vgcbh/mp_vgcbh_09.17.21.xlsx
@@ -3008,7 +3008,7 @@
       <c r="DM12" s="38" t="n"/>
       <c r="DN12" s="38" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" ht="70" customHeight="1">
       <c r="A13" s="39" t="inlineStr">
         <is>
           <t>Все</t>
@@ -3283,7 +3283,7 @@
       <c r="DM13" s="39" t="n"/>
       <c r="DN13" s="39" t="n"/>
     </row>
-    <row r="14">
+    <row r="14" ht="70" customHeight="1">
       <c r="A14" s="39" t="inlineStr">
         <is>
           <t>Все</t>
@@ -3551,7 +3551,7 @@
       <c r="DM14" s="39" t="n"/>
       <c r="DN14" s="39" t="n"/>
     </row>
-    <row r="15">
+    <row r="15" ht="70" customHeight="1">
       <c r="A15" s="39" t="inlineStr">
         <is>
           <t>Все</t>
@@ -3806,7 +3806,7 @@
       <c r="DM15" s="39" t="n"/>
       <c r="DN15" s="39" t="n"/>
     </row>
-    <row r="16">
+    <row r="16" ht="70" customHeight="1">
       <c r="A16" s="39" t="inlineStr">
         <is>
           <t>Все</t>
@@ -4056,7 +4056,7 @@
       <c r="DM16" s="39" t="n"/>
       <c r="DN16" s="39" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="70" customHeight="1">
       <c r="A17" s="39" t="inlineStr">
         <is>
           <t>Все</t>
